--- a/results/Karol/results_article/o1/MINIMAL_CONFLICTS.xlsx
+++ b/results/Karol/results_article/o1/MINIMAL_CONFLICTS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakto\Desktop\Pulpit\FaultDiagnosis\FaultDiagnosis\results_article\o1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\ania\LLM_and_diagnosisv2\results\Karol\results_article\o1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58AC796-D853-4FA8-8EE7-4F40CD7985BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0555B209-BA30-4EDB-BDC8-E9AD567C583B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15840" tabRatio="802" xr2:uid="{D7477BF9-CFC4-44C8-A16A-B837FBE23178}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="802" xr2:uid="{D7477BF9-CFC4-44C8-A16A-B837FBE23178}"/>
   </bookViews>
   <sheets>
     <sheet name="MINIMAL CONFLICTS" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="217">
   <si>
     <t>A1</t>
   </si>
@@ -51,33 +51,6 @@
   </si>
   <si>
     <t>Attempt 1</t>
-  </si>
-  <si>
-    <t>Attempt 2</t>
-  </si>
-  <si>
-    <t>Attempt 3</t>
-  </si>
-  <si>
-    <t>Attempt 4</t>
-  </si>
-  <si>
-    <t>Attempt 5</t>
-  </si>
-  <si>
-    <t>Attempt 6</t>
-  </si>
-  <si>
-    <t>Attempt 7</t>
-  </si>
-  <si>
-    <t>Attempt 8</t>
-  </si>
-  <si>
-    <t>Attempt 9</t>
-  </si>
-  <si>
-    <t>Attempt 10</t>
   </si>
   <si>
     <t>Avarage</t>
@@ -430,9 +403,6 @@
   </si>
   <si>
     <t>Example name</t>
-  </si>
-  <si>
-    <t>Example contant</t>
   </si>
   <si>
     <t>Observations</t>
@@ -1884,6 +1854,9 @@
     <t>A1, A5, M1, M2, M7
 A4, A6, M5, M6, M8
 A2, A3, M2, M3, M4, M5, M9</t>
+  </si>
+  <si>
+    <t>Example content</t>
   </si>
 </sst>
 </file>
@@ -3412,80 +3385,80 @@
   <sheetPr codeName="Arkusz4"/>
   <dimension ref="B1:BP103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BH103" sqref="BH103"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="258.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.6640625" defaultRowHeight="258.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="112.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="112.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="45" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="45" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="45" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="34.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="34.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="54.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="54.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="54.42578125" style="1" customWidth="1"/>
-    <col min="44" max="44" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="54.44140625" style="1" customWidth="1"/>
+    <col min="44" max="44" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="54.42578125" style="1" customWidth="1"/>
-    <col min="50" max="50" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="54.44140625" style="1" customWidth="1"/>
+    <col min="50" max="50" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="54.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="54.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="45" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="16384" width="17.7109375" style="1"/>
+    <col min="68" max="68" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="16384" width="17.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:68" ht="258.75" customHeight="1" thickBot="1"/>
@@ -3506,73 +3479,55 @@
       <c r="K2" s="47"/>
       <c r="L2" s="47"/>
       <c r="M2" s="48"/>
-      <c r="N2" s="45" t="s">
-        <v>6</v>
-      </c>
+      <c r="N2" s="45"/>
       <c r="O2" s="47"/>
       <c r="P2" s="47"/>
       <c r="Q2" s="47"/>
       <c r="R2" s="47"/>
       <c r="S2" s="48"/>
-      <c r="T2" s="45" t="s">
-        <v>7</v>
-      </c>
+      <c r="T2" s="45"/>
       <c r="U2" s="47"/>
       <c r="V2" s="47"/>
       <c r="W2" s="47"/>
       <c r="X2" s="47"/>
       <c r="Y2" s="48"/>
-      <c r="Z2" s="45" t="s">
-        <v>8</v>
-      </c>
+      <c r="Z2" s="45"/>
       <c r="AA2" s="47"/>
       <c r="AB2" s="47"/>
       <c r="AC2" s="47"/>
       <c r="AD2" s="47"/>
       <c r="AE2" s="48"/>
-      <c r="AF2" s="45" t="s">
-        <v>9</v>
-      </c>
+      <c r="AF2" s="45"/>
       <c r="AG2" s="47"/>
       <c r="AH2" s="47"/>
       <c r="AI2" s="47"/>
       <c r="AJ2" s="47"/>
       <c r="AK2" s="48"/>
-      <c r="AL2" s="45" t="s">
-        <v>10</v>
-      </c>
+      <c r="AL2" s="45"/>
       <c r="AM2" s="47"/>
       <c r="AN2" s="47"/>
       <c r="AO2" s="47"/>
       <c r="AP2" s="47"/>
       <c r="AQ2" s="48"/>
-      <c r="AR2" s="45" t="s">
-        <v>11</v>
-      </c>
+      <c r="AR2" s="45"/>
       <c r="AS2" s="47"/>
       <c r="AT2" s="47"/>
       <c r="AU2" s="47"/>
       <c r="AV2" s="47"/>
       <c r="AW2" s="48"/>
-      <c r="AX2" s="45" t="s">
-        <v>12</v>
-      </c>
+      <c r="AX2" s="45"/>
       <c r="AY2" s="47"/>
       <c r="AZ2" s="47"/>
       <c r="BA2" s="47"/>
       <c r="BB2" s="47"/>
       <c r="BC2" s="48"/>
-      <c r="BD2" s="45" t="s">
-        <v>13</v>
-      </c>
+      <c r="BD2" s="45"/>
       <c r="BE2" s="47"/>
       <c r="BF2" s="47"/>
       <c r="BG2" s="47"/>
       <c r="BH2" s="47"/>
       <c r="BI2" s="48"/>
-      <c r="BJ2" s="45" t="s">
-        <v>14</v>
-      </c>
+      <c r="BJ2" s="45"/>
       <c r="BK2" s="47"/>
       <c r="BL2" s="47"/>
       <c r="BM2" s="47"/>
@@ -3584,202 +3539,94 @@
         <v>1</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>95</v>
+        <v>216</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y3" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z3" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA3" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB3" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC3" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF3" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG3" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH3" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI3" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK3" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL3" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM3" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AN3" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO3" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR3" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS3" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT3" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AU3" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AV3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW3" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX3" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="AY3" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AZ3" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="BA3" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="BB3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="BD3" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="BE3" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="BF3" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="BG3" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="BH3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI3" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="BJ3" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="BK3" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="BL3" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="BM3" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="BN3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="12" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="N3" s="10"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="9"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="11"/>
+      <c r="AW3" s="9"/>
+      <c r="AX3" s="10"/>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8"/>
+      <c r="BB3" s="11"/>
+      <c r="BC3" s="9"/>
+      <c r="BD3" s="10"/>
+      <c r="BE3" s="8"/>
+      <c r="BF3" s="8"/>
+      <c r="BG3" s="8"/>
+      <c r="BH3" s="8"/>
+      <c r="BI3" s="9"/>
+      <c r="BJ3" s="10"/>
+      <c r="BK3" s="8"/>
+      <c r="BL3" s="8"/>
+      <c r="BM3" s="8"/>
+      <c r="BN3" s="8"/>
+      <c r="BO3" s="12"/>
       <c r="BP3" s="5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:68" ht="258.75" customHeight="1">
@@ -3787,13 +3634,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F4" s="25">
         <v>0</v>
@@ -3879,17 +3726,17 @@
         <v>2</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D5" s="50"/>
       <c r="E5" s="43" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="F5" s="25">
         <v>2</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H5" s="33">
         <v>2</v>
@@ -3907,7 +3754,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="N5" s="36"/>
       <c r="O5" s="34"/>
@@ -3973,17 +3820,17 @@
         <v>3</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D6" s="50"/>
       <c r="E6" s="43" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F6" s="25">
         <v>2</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H6" s="33">
         <v>2</v>
@@ -4001,7 +3848,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N6" s="36"/>
       <c r="O6" s="34"/>
@@ -4067,17 +3914,17 @@
         <v>4</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D7" s="50"/>
       <c r="E7" s="43" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F7" s="25">
         <v>2</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H7" s="33">
         <v>2</v>
@@ -4095,7 +3942,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="N7" s="36"/>
       <c r="O7" s="34"/>
@@ -4161,17 +4008,17 @@
         <v>5</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D8" s="51"/>
       <c r="E8" s="43" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F8" s="25">
         <v>3</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H8" s="33">
         <v>3</v>
@@ -4189,7 +4036,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="N8" s="36"/>
       <c r="O8" s="34"/>
@@ -4255,13 +4102,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F9" s="25">
         <v>0</v>
@@ -4347,17 +4194,17 @@
         <v>7</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D10" s="50"/>
       <c r="E10" s="43" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F10" s="25">
         <v>1</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H10" s="33">
         <v>1</v>
@@ -4375,7 +4222,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="N10" s="36"/>
       <c r="O10" s="34"/>
@@ -4441,17 +4288,17 @@
         <v>8</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D11" s="50"/>
       <c r="E11" s="43" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F11" s="25">
         <v>1</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H11" s="33">
         <v>1</v>
@@ -4469,7 +4316,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N11" s="36"/>
       <c r="O11" s="34"/>
@@ -4535,17 +4382,17 @@
         <v>9</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D12" s="51"/>
       <c r="E12" s="43" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="F12" s="25">
         <v>2</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H12" s="33">
         <v>2</v>
@@ -4563,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="21" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N12" s="36"/>
       <c r="O12" s="34"/>
@@ -4629,13 +4476,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F13" s="25">
         <v>0</v>
@@ -4721,17 +4568,17 @@
         <v>11</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D14" s="50"/>
       <c r="E14" s="43" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F14" s="25">
         <v>1</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H14" s="33">
         <v>1</v>
@@ -4749,7 +4596,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N14" s="36"/>
       <c r="O14" s="34"/>
@@ -4815,17 +4662,17 @@
         <v>12</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D15" s="50"/>
       <c r="E15" s="43" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F15" s="25">
         <v>1</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H15" s="33">
         <v>1</v>
@@ -4843,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N15" s="36"/>
       <c r="O15" s="34"/>
@@ -4909,17 +4756,17 @@
         <v>13</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D16" s="51"/>
       <c r="E16" s="43" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F16" s="25">
         <v>2</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H16" s="33">
         <v>2</v>
@@ -4937,7 +4784,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N16" s="36"/>
       <c r="O16" s="34"/>
@@ -5003,13 +4850,13 @@
         <v>14</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F17" s="25">
         <v>0</v>
@@ -5095,17 +4942,17 @@
         <v>15</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D18" s="50"/>
       <c r="E18" s="43" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F18" s="25">
         <v>1</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H18" s="33">
         <v>1</v>
@@ -5123,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="N18" s="36"/>
       <c r="O18" s="34"/>
@@ -5189,17 +5036,17 @@
         <v>16</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D19" s="50"/>
       <c r="E19" s="43" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F19" s="25">
         <v>2</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H19" s="33">
         <v>2</v>
@@ -5217,7 +5064,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N19" s="36"/>
       <c r="O19" s="34"/>
@@ -5283,17 +5130,17 @@
         <v>17</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D20" s="51"/>
       <c r="E20" s="43" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F20" s="25">
         <v>1</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H20" s="33">
         <v>1</v>
@@ -5311,7 +5158,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N20" s="36"/>
       <c r="O20" s="34"/>
@@ -5377,13 +5224,13 @@
         <v>18</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F21" s="25">
         <v>0</v>
@@ -5469,17 +5316,17 @@
         <v>19</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D22" s="50"/>
       <c r="E22" s="43" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F22" s="25">
         <v>2</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H22" s="33">
         <v>2</v>
@@ -5497,7 +5344,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="N22" s="36"/>
       <c r="O22" s="34"/>
@@ -5563,17 +5410,17 @@
         <v>20</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D23" s="50"/>
       <c r="E23" s="43" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F23" s="25">
         <v>2</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H23" s="33">
         <v>2</v>
@@ -5591,7 +5438,7 @@
         <v>1</v>
       </c>
       <c r="M23" s="21" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N23" s="36"/>
       <c r="O23" s="34"/>
@@ -5657,17 +5504,17 @@
         <v>21</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D24" s="51"/>
       <c r="E24" s="43" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F24" s="25">
         <v>3</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H24" s="33">
         <v>3</v>
@@ -5685,7 +5532,7 @@
         <v>1</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="N24" s="36"/>
       <c r="O24" s="34"/>
@@ -5751,13 +5598,13 @@
         <v>22</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D25" s="52" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F25" s="25">
         <v>0</v>
@@ -5843,17 +5690,17 @@
         <v>23</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D26" s="50"/>
       <c r="E26" s="43" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F26" s="25">
         <v>2</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H26" s="33">
         <v>2</v>
@@ -5871,7 +5718,7 @@
         <v>1</v>
       </c>
       <c r="M26" s="21" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N26" s="36"/>
       <c r="O26" s="34"/>
@@ -5937,17 +5784,17 @@
         <v>24</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D27" s="50"/>
       <c r="E27" s="43" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F27" s="25">
         <v>2</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H27" s="33">
         <v>2</v>
@@ -5965,7 +5812,7 @@
         <v>1</v>
       </c>
       <c r="M27" s="21" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N27" s="36"/>
       <c r="O27" s="34"/>
@@ -6031,17 +5878,17 @@
         <v>25</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D28" s="51"/>
       <c r="E28" s="43" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F28" s="25">
         <v>2</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H28" s="33">
         <v>2</v>
@@ -6059,7 +5906,7 @@
         <v>1</v>
       </c>
       <c r="M28" s="21" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N28" s="36"/>
       <c r="O28" s="34"/>
@@ -6125,13 +5972,13 @@
         <v>26</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D29" s="52" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F29" s="25">
         <v>0</v>
@@ -6217,17 +6064,17 @@
         <v>27</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D30" s="50"/>
       <c r="E30" s="43" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F30" s="25">
         <v>3</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="H30" s="33">
         <v>3</v>
@@ -6245,7 +6092,7 @@
         <v>1</v>
       </c>
       <c r="M30" s="21" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N30" s="36"/>
       <c r="O30" s="34"/>
@@ -6311,17 +6158,17 @@
         <v>28</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D31" s="50"/>
       <c r="E31" s="43" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F31" s="25">
         <v>4</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H31" s="33">
         <v>4</v>
@@ -6339,7 +6186,7 @@
         <v>1</v>
       </c>
       <c r="M31" s="21" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="N31" s="36"/>
       <c r="O31" s="34"/>
@@ -6405,17 +6252,17 @@
         <v>29</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D32" s="50"/>
       <c r="E32" s="43" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F32" s="25">
         <v>3</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H32" s="33">
         <v>3</v>
@@ -6433,7 +6280,7 @@
         <v>1</v>
       </c>
       <c r="M32" s="21" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N32" s="36"/>
       <c r="O32" s="34"/>
@@ -6499,17 +6346,17 @@
         <v>30</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D33" s="50"/>
       <c r="E33" s="43" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F33" s="25">
         <v>5</v>
       </c>
       <c r="G33" s="26" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H33" s="33">
         <v>4</v>
@@ -6527,7 +6374,7 @@
         <v>0.8</v>
       </c>
       <c r="M33" s="21" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="N33" s="36"/>
       <c r="O33" s="34"/>
@@ -6593,17 +6440,17 @@
         <v>31</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D34" s="50"/>
       <c r="E34" s="43" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F34" s="25">
         <v>5</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H34" s="33">
         <v>5</v>
@@ -6621,7 +6468,7 @@
         <v>1</v>
       </c>
       <c r="M34" s="21" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N34" s="36"/>
       <c r="O34" s="34"/>
@@ -6687,17 +6534,17 @@
         <v>32</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D35" s="50"/>
       <c r="E35" s="43" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F35" s="25">
         <v>4</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H35" s="33">
         <v>4</v>
@@ -6715,7 +6562,7 @@
         <v>1</v>
       </c>
       <c r="M35" s="21" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="N35" s="36"/>
       <c r="O35" s="34"/>
@@ -6781,17 +6628,17 @@
         <v>33</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D36" s="51"/>
       <c r="E36" s="43" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F36" s="25">
         <v>3</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H36" s="33">
         <v>3</v>
@@ -6809,7 +6656,7 @@
         <v>1</v>
       </c>
       <c r="M36" s="21" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="N36" s="36"/>
       <c r="O36" s="34"/>
@@ -6875,13 +6722,13 @@
         <v>34</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D37" s="52" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E37" s="43" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F37" s="25">
         <v>0</v>
@@ -6967,17 +6814,17 @@
         <v>35</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D38" s="50"/>
       <c r="E38" s="43" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F38" s="25">
         <v>5</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H38" s="33">
         <v>2</v>
@@ -6995,7 +6842,7 @@
         <v>0.4</v>
       </c>
       <c r="M38" s="21" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="N38" s="36"/>
       <c r="O38" s="34"/>
@@ -7061,17 +6908,17 @@
         <v>36</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D39" s="50"/>
       <c r="E39" s="43" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F39" s="25">
         <v>3</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H39" s="33">
         <v>5</v>
@@ -7089,7 +6936,7 @@
         <v>1</v>
       </c>
       <c r="M39" s="21" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="N39" s="36"/>
       <c r="O39" s="34"/>
@@ -7155,17 +7002,17 @@
         <v>37</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D40" s="50"/>
       <c r="E40" s="43" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="F40" s="25">
         <v>6</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H40" s="33">
         <v>6</v>
@@ -7183,7 +7030,7 @@
         <v>1</v>
       </c>
       <c r="M40" s="21" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N40" s="36"/>
       <c r="O40" s="34"/>
@@ -7249,17 +7096,17 @@
         <v>38</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D41" s="50"/>
       <c r="E41" s="43" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F41" s="25">
         <v>3</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H41" s="33">
         <v>3</v>
@@ -7277,7 +7124,7 @@
         <v>1</v>
       </c>
       <c r="M41" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N41" s="36"/>
       <c r="O41" s="34"/>
@@ -7343,17 +7190,17 @@
         <v>39</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D42" s="50"/>
       <c r="E42" s="43" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="F42" s="25">
         <v>4</v>
       </c>
       <c r="G42" s="26" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H42" s="33">
         <v>4</v>
@@ -7371,7 +7218,7 @@
         <v>1</v>
       </c>
       <c r="M42" s="21" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="N42" s="36"/>
       <c r="O42" s="34"/>
@@ -7437,17 +7284,17 @@
         <v>40</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D43" s="50"/>
       <c r="E43" s="43" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F43" s="25">
         <v>5</v>
       </c>
       <c r="G43" s="26" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H43" s="33">
         <v>5</v>
@@ -7465,7 +7312,7 @@
         <v>1</v>
       </c>
       <c r="M43" s="21" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="N43" s="36"/>
       <c r="O43" s="34"/>
@@ -7531,17 +7378,17 @@
         <v>41</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D44" s="51"/>
       <c r="E44" s="43" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="F44" s="25">
         <v>4</v>
       </c>
       <c r="G44" s="26" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H44" s="33">
         <v>3</v>
@@ -7559,7 +7406,7 @@
         <v>0.75</v>
       </c>
       <c r="M44" s="21" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="N44" s="36"/>
       <c r="O44" s="34"/>
@@ -7625,13 +7472,13 @@
         <v>42</v>
       </c>
       <c r="C45" s="43" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D45" s="52" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F45" s="25">
         <v>0</v>
@@ -7717,11 +7564,11 @@
         <v>43</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D46" s="51"/>
       <c r="E46" s="43" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F46" s="25">
         <v>1</v>
@@ -7811,13 +7658,13 @@
         <v>44</v>
       </c>
       <c r="C47" s="43" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D47" s="52" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E47" s="43" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F47" s="25">
         <v>0</v>
@@ -7903,17 +7750,17 @@
         <v>45</v>
       </c>
       <c r="C48" s="43" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D48" s="51"/>
       <c r="E48" s="43" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F48" s="25">
         <v>1</v>
       </c>
       <c r="G48" s="26" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H48" s="33">
         <v>1</v>
@@ -7931,7 +7778,7 @@
         <v>1</v>
       </c>
       <c r="M48" s="21" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="N48" s="36"/>
       <c r="O48" s="34"/>
@@ -7997,13 +7844,13 @@
         <v>46</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D49" s="52" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E49" s="43" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F49" s="25">
         <v>0</v>
@@ -8089,17 +7936,17 @@
         <v>47</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D50" s="50"/>
       <c r="E50" s="43" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F50" s="25">
         <v>2</v>
       </c>
       <c r="G50" s="26" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H50" s="33">
         <v>2</v>
@@ -8117,7 +7964,7 @@
         <v>1</v>
       </c>
       <c r="M50" s="21" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="N50" s="36"/>
       <c r="O50" s="34"/>
@@ -8183,17 +8030,17 @@
         <v>48</v>
       </c>
       <c r="C51" s="43" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D51" s="50"/>
       <c r="E51" s="43" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F51" s="25">
         <v>2</v>
       </c>
       <c r="G51" s="26" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H51" s="33">
         <v>2</v>
@@ -8211,7 +8058,7 @@
         <v>1</v>
       </c>
       <c r="M51" s="21" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="N51" s="36"/>
       <c r="O51" s="34"/>
@@ -8277,17 +8124,17 @@
         <v>49</v>
       </c>
       <c r="C52" s="43" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D52" s="51"/>
       <c r="E52" s="43" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F52" s="25">
         <v>2</v>
       </c>
       <c r="G52" s="26" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H52" s="33">
         <v>2</v>
@@ -8305,7 +8152,7 @@
         <v>1</v>
       </c>
       <c r="M52" s="21" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="N52" s="36"/>
       <c r="O52" s="34"/>
@@ -8371,13 +8218,13 @@
         <v>50</v>
       </c>
       <c r="C53" s="43" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D53" s="52" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E53" s="43" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F53" s="25">
         <v>0</v>
@@ -8463,17 +8310,17 @@
         <v>51</v>
       </c>
       <c r="C54" s="43" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D54" s="50"/>
       <c r="E54" s="43" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F54" s="25">
         <v>1</v>
       </c>
       <c r="G54" s="26" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H54" s="33">
         <v>1</v>
@@ -8491,7 +8338,7 @@
         <v>1</v>
       </c>
       <c r="M54" s="21" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="N54" s="36"/>
       <c r="O54" s="34"/>
@@ -8557,17 +8404,17 @@
         <v>52</v>
       </c>
       <c r="C55" s="43" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D55" s="50"/>
       <c r="E55" s="43" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F55" s="25">
         <v>1</v>
       </c>
       <c r="G55" s="26" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H55" s="33">
         <v>1</v>
@@ -8585,7 +8432,7 @@
         <v>1</v>
       </c>
       <c r="M55" s="21" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N55" s="36"/>
       <c r="O55" s="34"/>
@@ -8651,17 +8498,17 @@
         <v>53</v>
       </c>
       <c r="C56" s="43" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D56" s="51"/>
       <c r="E56" s="43" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="F56" s="25">
         <v>2</v>
       </c>
       <c r="G56" s="26" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H56" s="33">
         <v>2</v>
@@ -8679,7 +8526,7 @@
         <v>1</v>
       </c>
       <c r="M56" s="21" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N56" s="36"/>
       <c r="O56" s="34"/>
@@ -8745,13 +8592,13 @@
         <v>54</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D57" s="52" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E57" s="43" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F57" s="25">
         <v>0</v>
@@ -8837,17 +8684,17 @@
         <v>55</v>
       </c>
       <c r="C58" s="43" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D58" s="50"/>
       <c r="E58" s="43" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F58" s="25">
         <v>1</v>
       </c>
       <c r="G58" s="26" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H58" s="33">
         <v>1</v>
@@ -8865,7 +8712,7 @@
         <v>1</v>
       </c>
       <c r="M58" s="21" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="N58" s="36"/>
       <c r="O58" s="34"/>
@@ -8931,17 +8778,17 @@
         <v>56</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D59" s="50"/>
       <c r="E59" s="43" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F59" s="25">
         <v>1</v>
       </c>
       <c r="G59" s="26" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H59" s="33">
         <v>1</v>
@@ -8959,7 +8806,7 @@
         <v>1</v>
       </c>
       <c r="M59" s="21" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="N59" s="36"/>
       <c r="O59" s="34"/>
@@ -9025,17 +8872,17 @@
         <v>57</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D60" s="51"/>
       <c r="E60" s="43" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="F60" s="25">
         <v>2</v>
       </c>
       <c r="G60" s="26" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H60" s="33">
         <v>2</v>
@@ -9053,7 +8900,7 @@
         <v>1</v>
       </c>
       <c r="M60" s="21" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="N60" s="36"/>
       <c r="O60" s="34"/>
@@ -9119,13 +8966,13 @@
         <v>58</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D61" s="52" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E61" s="43" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F61" s="25">
         <v>0</v>
@@ -9211,17 +9058,17 @@
         <v>59</v>
       </c>
       <c r="C62" s="43" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D62" s="50"/>
       <c r="E62" s="43" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F62" s="25">
         <v>1</v>
       </c>
       <c r="G62" s="26" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H62" s="33">
         <v>1</v>
@@ -9239,7 +9086,7 @@
         <v>1</v>
       </c>
       <c r="M62" s="21" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="N62" s="36"/>
       <c r="O62" s="34"/>
@@ -9305,17 +9152,17 @@
         <v>60</v>
       </c>
       <c r="C63" s="43" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D63" s="50"/>
       <c r="E63" s="43" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F63" s="25">
         <v>1</v>
       </c>
       <c r="G63" s="26" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H63" s="33">
         <v>1</v>
@@ -9333,7 +9180,7 @@
         <v>1</v>
       </c>
       <c r="M63" s="21" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="N63" s="36"/>
       <c r="O63" s="34"/>
@@ -9399,17 +9246,17 @@
         <v>61</v>
       </c>
       <c r="C64" s="43" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D64" s="51"/>
       <c r="E64" s="43" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="F64" s="25">
         <v>2</v>
       </c>
       <c r="G64" s="26" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H64" s="33">
         <v>2</v>
@@ -9427,7 +9274,7 @@
         <v>1</v>
       </c>
       <c r="M64" s="21" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="N64" s="36"/>
       <c r="O64" s="34"/>
@@ -9493,13 +9340,13 @@
         <v>62</v>
       </c>
       <c r="C65" s="43" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D65" s="52" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E65" s="43" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F65" s="25">
         <v>0</v>
@@ -9585,17 +9432,17 @@
         <v>63</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D66" s="50"/>
       <c r="E66" s="43" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F66" s="25">
         <v>1</v>
       </c>
       <c r="G66" s="26" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="H66" s="33">
         <v>1</v>
@@ -9613,7 +9460,7 @@
         <v>1</v>
       </c>
       <c r="M66" s="21" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N66" s="36"/>
       <c r="O66" s="34"/>
@@ -9679,17 +9526,17 @@
         <v>64</v>
       </c>
       <c r="C67" s="43" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D67" s="50"/>
       <c r="E67" s="43" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F67" s="25">
         <v>2</v>
       </c>
       <c r="G67" s="26" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H67" s="33">
         <v>0</v>
@@ -9773,17 +9620,17 @@
         <v>65</v>
       </c>
       <c r="C68" s="43" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D68" s="51"/>
       <c r="E68" s="43" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F68" s="25">
         <v>3</v>
       </c>
       <c r="G68" s="26" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H68" s="33">
         <v>0</v>
@@ -9867,13 +9714,13 @@
         <v>66</v>
       </c>
       <c r="C69" s="43" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D69" s="52" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E69" s="43" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F69" s="25">
         <v>0</v>
@@ -9961,17 +9808,17 @@
         <v>67</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D70" s="50"/>
       <c r="E70" s="43" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="F70" s="25">
         <v>2</v>
       </c>
       <c r="G70" s="26" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H70" s="33">
         <v>0</v>
@@ -10055,17 +9902,17 @@
         <v>68</v>
       </c>
       <c r="C71" s="43" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D71" s="50"/>
       <c r="E71" s="43" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F71" s="25">
         <v>2</v>
       </c>
       <c r="G71" s="26" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H71" s="33">
         <v>0</v>
@@ -10149,17 +9996,17 @@
         <v>69</v>
       </c>
       <c r="C72" s="43" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D72" s="51"/>
       <c r="E72" s="43" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F72" s="25">
         <v>3</v>
       </c>
       <c r="G72" s="26" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H72" s="33">
         <v>0</v>
@@ -10243,13 +10090,13 @@
         <v>70</v>
       </c>
       <c r="C73" s="43" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D73" s="52" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E73" s="43" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="F73" s="25">
         <v>0</v>
@@ -10337,17 +10184,17 @@
         <v>71</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D74" s="50"/>
       <c r="E74" s="43" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="F74" s="25">
         <v>3</v>
       </c>
       <c r="G74" s="26" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H74" s="33">
         <v>0</v>
@@ -10431,17 +10278,17 @@
         <v>72</v>
       </c>
       <c r="C75" s="43" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D75" s="50"/>
       <c r="E75" s="43" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="F75" s="25">
         <v>5</v>
       </c>
       <c r="G75" s="26" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H75" s="33">
         <v>0</v>
@@ -10525,17 +10372,17 @@
         <v>73</v>
       </c>
       <c r="C76" s="43" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D76" s="50"/>
       <c r="E76" s="43" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="F76" s="25">
         <v>5</v>
       </c>
       <c r="G76" s="26" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H76" s="33">
         <v>0</v>
@@ -10619,17 +10466,17 @@
         <v>74</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D77" s="50"/>
       <c r="E77" s="43" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="F77" s="25">
         <v>2</v>
       </c>
       <c r="G77" s="26" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H77" s="33">
         <v>0</v>
@@ -10713,17 +10560,17 @@
         <v>75</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D78" s="50"/>
       <c r="E78" s="43" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="F78" s="25">
         <v>2</v>
       </c>
       <c r="G78" s="26" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H78" s="33">
         <v>0</v>
@@ -10807,17 +10654,17 @@
         <v>76</v>
       </c>
       <c r="C79" s="43" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D79" s="50"/>
       <c r="E79" s="43" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="F79" s="25">
         <v>3</v>
       </c>
       <c r="G79" s="26" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="H79" s="33">
         <v>0</v>
@@ -10901,17 +10748,17 @@
         <v>77</v>
       </c>
       <c r="C80" s="43" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D80" s="51"/>
       <c r="E80" s="43" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="F80" s="25">
         <v>5</v>
       </c>
       <c r="G80" s="26" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H80" s="33">
         <v>0</v>
@@ -10995,13 +10842,13 @@
         <v>78</v>
       </c>
       <c r="C81" s="43" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D81" s="52" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E81" s="43" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="F81" s="25">
         <v>0</v>
@@ -11089,17 +10936,17 @@
         <v>79</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D82" s="50"/>
       <c r="E82" s="43" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="F82" s="25">
         <v>1</v>
       </c>
       <c r="G82" s="26" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H82" s="33">
         <v>0</v>
@@ -11183,17 +11030,17 @@
         <v>80</v>
       </c>
       <c r="C83" s="43" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D83" s="50"/>
       <c r="E83" s="43" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="F83" s="25">
         <v>5</v>
       </c>
       <c r="G83" s="26" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H83" s="33">
         <v>0</v>
@@ -11277,17 +11124,17 @@
         <v>81</v>
       </c>
       <c r="C84" s="43" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D84" s="50"/>
       <c r="E84" s="43" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="F84" s="25">
         <v>3</v>
       </c>
       <c r="G84" s="26" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H84" s="33">
         <v>0</v>
@@ -11371,17 +11218,17 @@
         <v>82</v>
       </c>
       <c r="C85" s="43" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D85" s="50"/>
       <c r="E85" s="43" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F85" s="25">
         <v>5</v>
       </c>
       <c r="G85" s="26" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H85" s="33">
         <v>0</v>
@@ -11465,17 +11312,17 @@
         <v>83</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D86" s="50"/>
       <c r="E86" s="43" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F86" s="25">
         <v>4</v>
       </c>
       <c r="G86" s="26" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="H86" s="33">
         <v>0</v>
@@ -11559,17 +11406,17 @@
         <v>84</v>
       </c>
       <c r="C87" s="43" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D87" s="50"/>
       <c r="E87" s="43" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F87" s="25">
         <v>1</v>
       </c>
       <c r="G87" s="26" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H87" s="33">
         <v>0</v>
@@ -11653,17 +11500,17 @@
         <v>85</v>
       </c>
       <c r="C88" s="43" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D88" s="51"/>
       <c r="E88" s="43" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F88" s="25">
         <v>5</v>
       </c>
       <c r="G88" s="26" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="H88" s="33">
         <v>0</v>
@@ -11747,13 +11594,13 @@
         <v>86</v>
       </c>
       <c r="C89" s="43" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D89" s="52" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E89" s="43" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F89" s="25">
         <v>0</v>
@@ -11841,17 +11688,17 @@
         <v>87</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D90" s="50"/>
       <c r="E90" s="43" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="F90" s="25">
         <v>2</v>
       </c>
       <c r="G90" s="26" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H90" s="33">
         <v>0</v>
@@ -11935,17 +11782,17 @@
         <v>88</v>
       </c>
       <c r="C91" s="43" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D91" s="50"/>
       <c r="E91" s="43" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F91" s="25">
         <v>2</v>
       </c>
       <c r="G91" s="26" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H91" s="33">
         <v>0</v>
@@ -12029,17 +11876,17 @@
         <v>89</v>
       </c>
       <c r="C92" s="43" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D92" s="51"/>
       <c r="E92" s="43" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F92" s="25">
         <v>3</v>
       </c>
       <c r="G92" s="26" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H92" s="33">
         <v>0</v>
@@ -12123,13 +11970,13 @@
         <v>90</v>
       </c>
       <c r="C93" s="43" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D93" s="52" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E93" s="43" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F93" s="25">
         <v>0</v>
@@ -12217,17 +12064,17 @@
         <v>91</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D94" s="50"/>
       <c r="E94" s="43" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F94" s="25">
         <v>2</v>
       </c>
       <c r="G94" s="26" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H94" s="33">
         <v>0</v>
@@ -12311,17 +12158,17 @@
         <v>92</v>
       </c>
       <c r="C95" s="43" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D95" s="50"/>
       <c r="E95" s="43" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="F95" s="25">
         <v>1</v>
       </c>
       <c r="G95" s="26" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H95" s="33">
         <v>0</v>
@@ -12405,17 +12252,17 @@
         <v>93</v>
       </c>
       <c r="C96" s="43" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D96" s="51"/>
       <c r="E96" s="43" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F96" s="25">
         <v>3</v>
       </c>
       <c r="G96" s="26" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H96" s="33">
         <v>0</v>
@@ -12499,13 +12346,13 @@
         <v>94</v>
       </c>
       <c r="C97" s="43" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D97" s="52" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E97" s="43" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F97" s="25">
         <v>0</v>
@@ -12593,17 +12440,17 @@
         <v>95</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D98" s="51"/>
       <c r="E98" s="43" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F98" s="25">
         <v>1</v>
       </c>
       <c r="G98" s="26" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H98" s="33">
         <v>0</v>
@@ -12687,13 +12534,13 @@
         <v>96</v>
       </c>
       <c r="C99" s="43" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D99" s="52" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E99" s="43" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="F99" s="25">
         <f t="shared" ref="F99:F102" si="2">IF(G99="", 0, LEN(G99) - LEN(SUBSTITUTE(G99, CHAR(10), "")) + 1)</f>
@@ -12782,11 +12629,11 @@
         <v>97</v>
       </c>
       <c r="C100" s="43" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D100" s="51"/>
       <c r="E100" s="43" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F100" s="25">
         <f t="shared" si="2"/>
@@ -12877,13 +12724,13 @@
         <v>98</v>
       </c>
       <c r="C101" s="43" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D101" s="52" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E101" s="43" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="F101" s="25">
         <f t="shared" si="2"/>
@@ -12972,18 +12819,18 @@
         <v>99</v>
       </c>
       <c r="C102" s="44" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D102" s="53"/>
       <c r="E102" s="44" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="F102" s="27">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G102" s="28" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H102" s="37">
         <v>0</v>
@@ -13064,7 +12911,7 @@
     </row>
     <row r="103" spans="2:68" ht="258.75" customHeight="1" thickBot="1">
       <c r="BO103" s="13" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="BP103" s="6">
         <f>AVERAGEA(BP4:BP102)</f>
